--- a/report/詳細設計書/詳細設計書_I0005_作成画面.xlsx
+++ b/report/詳細設計書/詳細設計書_I0005_作成画面.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\ISS\report\詳細設計書\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="0" windowWidth="16452" windowHeight="10872"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="16455" windowHeight="10875"/>
   </bookViews>
   <sheets>
     <sheet name="修正履歴" sheetId="17" r:id="rId1"/>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -93,13 +98,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>-</t>
-    <rPh sb="0" eb="1">
-      <t>ジョウホウサイシュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>イベント定期</t>
     <rPh sb="4" eb="6">
       <t>テイキ</t>
@@ -180,24 +178,6 @@
     <t>ISSMINI</t>
   </si>
   <si>
-    <t>9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>テキスト_タイトル</t>
-    <rPh sb="4" eb="6">
-      <t>サイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テキスト_内容</t>
-    <rPh sb="4" eb="6">
-      <t>サイショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>掲示板_登録ボタン</t>
     <rPh sb="4" eb="6">
       <t>サイショ</t>
@@ -216,42 +196,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>金哲湖</t>
+    <rPh sb="0" eb="1">
+      <t>キム</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テツコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能番号IE0001に修正、SQL文削除</t>
+    <rPh sb="0" eb="4">
+      <t>キノウバンゴウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IE0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>①BOA_TBLにインサート
 ②I0003に移動する。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>金哲湖</t>
-    <rPh sb="0" eb="1">
-      <t>キム</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>テツコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE0002</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能番号IE0001に修正、SQL文削除</t>
-    <rPh sb="0" eb="4">
-      <t>キノウバンゴウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>サクジョ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IE0001</t>
+    <t>8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -924,6 +908,24 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -951,27 +953,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1276,7 +1260,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1286,38 +1270,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.69921875" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.69921875" style="7"/>
+    <col min="2" max="2" width="12.75" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.75" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="18" thickBot="1"/>
+    <row r="1" spans="1:28" ht="19.5" thickBot="1"/>
     <row r="2" spans="1:28">
       <c r="A2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>15</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="12"/>
       <c r="J2" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K2" s="11"/>
       <c r="L2" s="11"/>
@@ -1342,25 +1324,25 @@
       <c r="A3" s="20">
         <v>1</v>
       </c>
-      <c r="B3" s="76">
+      <c r="B3" s="67">
         <v>44723</v>
       </c>
-      <c r="C3" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="81"/>
-      <c r="L3" s="81"/>
+      <c r="C3" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="69"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="16"/>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
@@ -2016,7 +1998,7 @@
       <c r="AA23" s="18"/>
       <c r="AB23" s="19"/>
     </row>
-    <row r="24" spans="1:28" ht="18" thickBot="1">
+    <row r="24" spans="1:28" ht="19.5" thickBot="1">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
       <c r="C24" s="28"/>
@@ -2087,28 +2069,28 @@
   <dimension ref="A1:AF29"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.69921875" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="3.75" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="2" width="3.69921875" style="43"/>
+    <col min="1" max="2" width="3.75" style="43"/>
     <col min="3" max="3" width="4" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="3.69921875" style="43"/>
-    <col min="13" max="13" width="4.3984375" style="43" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="3.69921875" style="43"/>
+    <col min="4" max="12" width="3.75" style="43"/>
+    <col min="13" max="13" width="4.375" style="43" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="3.75" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" s="34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="36"/>
       <c r="F1" s="37" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
@@ -2123,7 +2105,7 @@
       <c r="O1" s="35"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R1" s="38"/>
       <c r="S1" s="38"/>
@@ -2137,7 +2119,7 @@
       </c>
       <c r="Z1" s="36"/>
       <c r="AA1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AB1" s="38"/>
       <c r="AC1" s="38"/>
@@ -2145,16 +2127,16 @@
       <c r="AE1" s="38"/>
       <c r="AF1" s="42"/>
     </row>
-    <row r="2" spans="1:32" ht="18" thickBot="1">
+    <row r="2" spans="1:32" ht="19.5" thickBot="1">
       <c r="A2" s="44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="45"/>
       <c r="C2" s="45"/>
       <c r="D2" s="45"/>
       <c r="E2" s="46"/>
       <c r="F2" s="47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="48"/>
       <c r="H2" s="48"/>
@@ -2187,7 +2169,7 @@
     </row>
     <row r="4" spans="1:32">
       <c r="B4" s="53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="54"/>
       <c r="D4" s="54"/>
@@ -2222,7 +2204,7 @@
     </row>
     <row r="5" spans="1:32">
       <c r="C5" s="64" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -2260,10 +2242,10 @@
     </row>
     <row r="9" spans="1:32">
       <c r="C9" s="60" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" s="61"/>
       <c r="F9" s="61"/>
@@ -2274,7 +2256,7 @@
       <c r="K9" s="61"/>
       <c r="L9" s="62"/>
       <c r="M9" s="63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N9" s="61"/>
       <c r="O9" s="61"/>
@@ -2285,62 +2267,6 @@
       <c r="T9" s="61"/>
       <c r="U9" s="61"/>
       <c r="V9" s="62"/>
-    </row>
-    <row r="10" spans="1:32">
-      <c r="C10" s="3">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:32">
-      <c r="C11" s="3">
-        <v>4</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="5"/>
     </row>
     <row r="12" spans="1:32">
       <c r="C12" s="66"/>
@@ -2443,300 +2369,300 @@
     </row>
     <row r="19" spans="2:29">
       <c r="B19" s="53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:29">
-      <c r="C20" s="67" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" ht="18.75" customHeight="1">
+      <c r="C20" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="68"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="68"/>
-      <c r="V20" s="68"/>
-      <c r="W20" s="68"/>
-      <c r="X20" s="68"/>
-      <c r="Y20" s="68"/>
-      <c r="Z20" s="68"/>
-      <c r="AA20" s="68"/>
-      <c r="AB20" s="68"/>
-      <c r="AC20" s="69"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
+      <c r="M20" s="74"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="74"/>
+      <c r="T20" s="74"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="74"/>
+      <c r="X20" s="74"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="74"/>
+      <c r="AA20" s="74"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="75"/>
     </row>
     <row r="21" spans="2:29">
-      <c r="C21" s="70"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="71"/>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="72"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="78"/>
     </row>
     <row r="22" spans="2:29">
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
-      <c r="M22" s="71"/>
-      <c r="N22" s="71"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="71"/>
-      <c r="U22" s="71"/>
-      <c r="V22" s="71"/>
-      <c r="W22" s="71"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="71"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="71"/>
-      <c r="AC22" s="72"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="78"/>
     </row>
     <row r="23" spans="2:29">
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="71"/>
-      <c r="M23" s="71"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="71"/>
-      <c r="T23" s="71"/>
-      <c r="U23" s="71"/>
-      <c r="V23" s="71"/>
-      <c r="W23" s="71"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="71"/>
-      <c r="Z23" s="71"/>
-      <c r="AA23" s="71"/>
-      <c r="AB23" s="71"/>
-      <c r="AC23" s="72"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="77"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="78"/>
     </row>
     <row r="24" spans="2:29">
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
-      <c r="M24" s="71"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="71"/>
-      <c r="T24" s="71"/>
-      <c r="U24" s="71"/>
-      <c r="V24" s="71"/>
-      <c r="W24" s="71"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="71"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="71"/>
-      <c r="AB24" s="71"/>
-      <c r="AC24" s="72"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="77"/>
+      <c r="W24" s="77"/>
+      <c r="X24" s="77"/>
+      <c r="Y24" s="77"/>
+      <c r="Z24" s="77"/>
+      <c r="AA24" s="77"/>
+      <c r="AB24" s="77"/>
+      <c r="AC24" s="78"/>
     </row>
     <row r="25" spans="2:29">
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
-      <c r="N25" s="71"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="71"/>
-      <c r="T25" s="71"/>
-      <c r="U25" s="71"/>
-      <c r="V25" s="71"/>
-      <c r="W25" s="71"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="71"/>
-      <c r="Z25" s="71"/>
-      <c r="AA25" s="71"/>
-      <c r="AB25" s="71"/>
-      <c r="AC25" s="72"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="77"/>
+      <c r="W25" s="77"/>
+      <c r="X25" s="77"/>
+      <c r="Y25" s="77"/>
+      <c r="Z25" s="77"/>
+      <c r="AA25" s="77"/>
+      <c r="AB25" s="77"/>
+      <c r="AC25" s="78"/>
     </row>
     <row r="26" spans="2:29">
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="71"/>
-      <c r="N26" s="71"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="71"/>
-      <c r="T26" s="71"/>
-      <c r="U26" s="71"/>
-      <c r="V26" s="71"/>
-      <c r="W26" s="71"/>
-      <c r="X26" s="71"/>
-      <c r="Y26" s="71"/>
-      <c r="Z26" s="71"/>
-      <c r="AA26" s="71"/>
-      <c r="AB26" s="71"/>
-      <c r="AC26" s="72"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="77"/>
+      <c r="X26" s="77"/>
+      <c r="Y26" s="77"/>
+      <c r="Z26" s="77"/>
+      <c r="AA26" s="77"/>
+      <c r="AB26" s="77"/>
+      <c r="AC26" s="78"/>
     </row>
     <row r="27" spans="2:29">
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="71"/>
-      <c r="M27" s="71"/>
-      <c r="N27" s="71"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="71"/>
-      <c r="T27" s="71"/>
-      <c r="U27" s="71"/>
-      <c r="V27" s="71"/>
-      <c r="W27" s="71"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="71"/>
-      <c r="Z27" s="71"/>
-      <c r="AA27" s="71"/>
-      <c r="AB27" s="71"/>
-      <c r="AC27" s="72"/>
+      <c r="C27" s="76"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
+      <c r="L27" s="77"/>
+      <c r="M27" s="77"/>
+      <c r="N27" s="77"/>
+      <c r="O27" s="77"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="77"/>
+      <c r="R27" s="77"/>
+      <c r="S27" s="77"/>
+      <c r="T27" s="77"/>
+      <c r="U27" s="77"/>
+      <c r="V27" s="77"/>
+      <c r="W27" s="77"/>
+      <c r="X27" s="77"/>
+      <c r="Y27" s="77"/>
+      <c r="Z27" s="77"/>
+      <c r="AA27" s="77"/>
+      <c r="AB27" s="77"/>
+      <c r="AC27" s="78"/>
     </row>
     <row r="28" spans="2:29">
-      <c r="C28" s="70"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
-      <c r="L28" s="71"/>
-      <c r="M28" s="71"/>
-      <c r="N28" s="71"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="71"/>
-      <c r="T28" s="71"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="71"/>
-      <c r="Z28" s="71"/>
-      <c r="AA28" s="71"/>
-      <c r="AB28" s="71"/>
-      <c r="AC28" s="72"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="77"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
+      <c r="G28" s="77"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="77"/>
+      <c r="J28" s="77"/>
+      <c r="K28" s="77"/>
+      <c r="L28" s="77"/>
+      <c r="M28" s="77"/>
+      <c r="N28" s="77"/>
+      <c r="O28" s="77"/>
+      <c r="P28" s="77"/>
+      <c r="Q28" s="77"/>
+      <c r="R28" s="77"/>
+      <c r="S28" s="77"/>
+      <c r="T28" s="77"/>
+      <c r="U28" s="77"/>
+      <c r="V28" s="77"/>
+      <c r="W28" s="77"/>
+      <c r="X28" s="77"/>
+      <c r="Y28" s="77"/>
+      <c r="Z28" s="77"/>
+      <c r="AA28" s="77"/>
+      <c r="AB28" s="77"/>
+      <c r="AC28" s="78"/>
     </row>
     <row r="29" spans="2:29">
-      <c r="C29" s="73"/>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="74"/>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="74"/>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
-      <c r="Z29" s="74"/>
-      <c r="AA29" s="74"/>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="75"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="80"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="80"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="80"/>
+      <c r="K29" s="80"/>
+      <c r="L29" s="80"/>
+      <c r="M29" s="80"/>
+      <c r="N29" s="80"/>
+      <c r="O29" s="80"/>
+      <c r="P29" s="80"/>
+      <c r="Q29" s="80"/>
+      <c r="R29" s="80"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="80"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
+      <c r="AA29" s="80"/>
+      <c r="AB29" s="80"/>
+      <c r="AC29" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">
